--- a/build/files/Presupuesto tablas dinamicas.xlsx
+++ b/build/files/Presupuesto tablas dinamicas.xlsx
@@ -1,29 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0A71D8-88DF-4E52-B243-9E330C306D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51079A43-6E37-4BC5-8F40-448F51F90484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inicio" sheetId="2" r:id="rId1"/>
-    <sheet name="Presupuesto personal mensual" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Presupuesto personal mensual" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$A$36:$A$47</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$B$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$B$36:$B$47</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$C$35</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$C$36:$C$47</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$A$36:$A$47</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$B$35</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$B$36:$B$47</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Hoja1!$C$35</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Hoja1!$C$36:$C$47</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,28 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
-  <si>
-    <t>Acerca de esta plantilla</t>
-  </si>
-  <si>
-    <t>Use esta hoja de cálculo de presupuesto mensual personal para realizar un seguimiento de sus ingresos mensuales previstos y reales, así como de sus gastos mensuales previstos y reales.</t>
-  </si>
-  <si>
-    <t>• Escriba los gastos en diferentes categorías en las tablas correspondientes.</t>
-  </si>
-  <si>
-    <t>• El saldo previsto, el saldo real y la diferencia se calculan automáticamente.</t>
-  </si>
-  <si>
-    <t>Nota: </t>
-  </si>
-  <si>
-    <t>Se facilitan instrucciones adicionales en la columna A de la hoja de cálculo PRESUPUESTO MENSUAL PERSONAL. Este texto se ha ocultado a propósito. Para eliminar el texto, seleccione la columna A y, a continuación, ELIMINAR. Para mostrar el texto, seleccione la columna A y, a continuación, cambie el color de fuente.</t>
-  </si>
-  <si>
-    <t>Para obtener más información sobre las tablas de la hoja de cálculo, presione las teclas SHIFT y F10 dentro de una tabla, seleccione la opción TABLA y, a continuación, TEXTO ALTERNATIVO.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
   <si>
     <t>Presupuesto personal mensual</t>
   </si>
@@ -347,25 +312,18 @@
     </r>
   </si>
   <si>
-    <t>Columna1</t>
-  </si>
-  <si>
     <t>Total previsto</t>
-  </si>
-  <si>
-    <t>Ahorro e Inversión</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="_-[$₡-140A]* #,##0.00_-;\-[$₡-140A]* #,##0.00_-;_-[$₡-140A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;₡&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -401,36 +359,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="40"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -885,299 +813,261 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="11"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="37" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="41" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Encabezado 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Fecha" xfId="5" xr:uid="{FE33F3B2-B201-45AD-A81E-81BCB12ED9D2}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Teléfono" xfId="4" xr:uid="{70E46558-98AC-446F-861A-54F270CBD905}"/>
+    <cellStyle name="Título 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="3" builtinId="18" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="178">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₡&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₡&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₡&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₡&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₡&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="173">
     <dxf>
       <font>
         <b/>
@@ -4937,18 +4827,18 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Libreta de direcciones" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="177"/>
-      <tableStyleElement type="headerRow" dxfId="176"/>
-      <tableStyleElement type="totalRow" dxfId="175"/>
+      <tableStyleElement type="wholeTable" dxfId="172"/>
+      <tableStyleElement type="headerRow" dxfId="171"/>
+      <tableStyleElement type="totalRow" dxfId="170"/>
     </tableStyle>
     <tableStyle name="Presupuesto personal mensual" pivot="0" count="7" xr9:uid="{DF2684C2-C435-47FA-9646-E632C3AE8948}">
-      <tableStyleElement type="wholeTable" dxfId="174"/>
-      <tableStyleElement type="headerRow" dxfId="173"/>
-      <tableStyleElement type="totalRow" dxfId="172"/>
-      <tableStyleElement type="firstColumn" dxfId="171"/>
-      <tableStyleElement type="lastColumn" dxfId="170"/>
-      <tableStyleElement type="firstRowStripe" dxfId="169"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="168"/>
+      <tableStyleElement type="wholeTable" dxfId="169"/>
+      <tableStyleElement type="headerRow" dxfId="168"/>
+      <tableStyleElement type="totalRow" dxfId="167"/>
+      <tableStyleElement type="firstColumn" dxfId="166"/>
+      <tableStyleElement type="lastColumn" dxfId="165"/>
+      <tableStyleElement type="firstRowStripe" dxfId="164"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="163"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4970,2958 +4860,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CR" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ingreso mensual previsto y</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CR" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> actual</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CR" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-4089-4D8F-9D5E-80904A579335}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4089-4D8F-9D5E-80904A579335}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$1:$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Ingresos mensuales previstos</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ingreso mensual actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$A$2:$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>"₡"#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4089-4D8F-9D5E-80904A579335}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="701435167"/>
-        <c:axId val="701442367"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="701435167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="701442367"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="701442367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;₡&quot;#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="701435167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CR" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Control de gastos general</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B0D4-44B5-B6CD-542750D27857}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$20:$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Costo total previsto</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Costo real total</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diferencia total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$A$21:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>"₡"#,##0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1925000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>185700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>185700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0D4-44B5-B6CD-542750D27857}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1327448495"/>
-        <c:axId val="1327439855"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1327448495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1327439855"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1327439855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;₡&quot;#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1327448495"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES" sz="2000" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Control de gastos por partida</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$36:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>"₡"#,##0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>530000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>265000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>390000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>110000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>98000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$B$35</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Cantidad prevista
-costo</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$36:$A$47</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>Vivienda</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Entretenimiento</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Transporte</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Préstamos</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Seguro</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Impuestos</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Comida</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>Ahorro e Inversión</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Mascotas</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>Regalos y donaciones</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>Cuidado personal</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>Legal</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE7F-4DF9-91AD-1644462E21B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$C$36:$C$47</c:f>
-              <c:numCache>
-                <c:formatCode>"₡"#,##0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>364000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>212300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>116000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>530000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$C$35</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Real 
-costo</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$36:$A$47</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>Vivienda</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Entretenimiento</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Transporte</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Préstamos</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Seguro</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Impuestos</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Comida</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>Ahorro e Inversión</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Mascotas</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>Regalos y donaciones</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>Cuidado personal</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>Legal</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE7F-4DF9-91AD-1644462E21B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:axId val="809717320"/>
-        <c:axId val="809714040"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="809717320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="809714040"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="809714040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;₡&quot;#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="809717320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>254004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>939804</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Gráfico 2" descr="Dinero">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FC616A-5101-4F29-9ACA-5397EC757A8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1373188" y="508004"/>
-          <a:ext cx="685800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8032,126 +4971,13 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB98FBF-141D-8768-EB41-4606EF2EF828}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B03A13-7C80-8DF3-FC45-0376BD0B06BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>103294</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>115994</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>306917</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A064E8-D30F-5246-38B7-50AD0A1BE65A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Vivienda" displayName="Alojamiento" ref="B15:E26" totalsRowCount="1" headerRowDxfId="167" dataDxfId="165" totalsRowDxfId="163" headerRowBorderDxfId="166" tableBorderDxfId="164" totalsRowBorderDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Vivienda" displayName="Alojamiento" ref="B15:E26" totalsRowCount="1" headerRowDxfId="162" dataDxfId="160" totalsRowDxfId="158" headerRowBorderDxfId="161" tableBorderDxfId="159" totalsRowBorderDxfId="157">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Cantidad prevista_x000a_costo" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Real _x000a_costo" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="155" totalsRowDxfId="154">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Cantidad prevista_x000a_costo" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Real _x000a_costo" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula>Alojamiento[[#This Row],[Cantidad prevista
 costo]]-Alojamiento[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8167,7 +4993,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Mascotas" displayName="Mascotas" ref="B55:E61" totalsRowCount="1" headerRowDxfId="43" dataDxfId="41" totalsRowDxfId="40" headerRowBorderDxfId="42" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Mascotas" displayName="Mascotas" ref="B55:E61" totalsRowCount="1" headerRowDxfId="38" dataDxfId="36" totalsRowDxfId="35" headerRowBorderDxfId="37" totalsRowBorderDxfId="34">
   <autoFilter ref="B55:E60" xr:uid="{00000000-0009-0000-0100-00000A000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8175,10 +5001,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Real _x000a_costo" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Real _x000a_costo" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>Mascotas[[#This Row],[Cantidad prevista 
 costo]]-Mascotas[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8194,7 +5020,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Legal" displayName="Legal" ref="G64:J69" totalsRowCount="1" headerRowDxfId="30" dataDxfId="28" totalsRowDxfId="27" headerRowBorderDxfId="29" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Legal" displayName="Legal" ref="G64:J69" totalsRowCount="1" headerRowDxfId="25" dataDxfId="23" totalsRowDxfId="22" headerRowBorderDxfId="24" totalsRowBorderDxfId="21">
   <autoFilter ref="G64:J68" xr:uid="{00000000-0009-0000-0100-00000B000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8202,10 +5028,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="LEGAL" totalsRowLabel="Subtotal" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Real _x000a_costo" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="LEGAL" totalsRowLabel="Subtotal" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Real _x000a_costo" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>Legal[[#This Row],[Cantidad prevista 
 costo]]-Legal[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8221,7 +5047,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CuidadoPersonal" displayName="CuidadoPersonal" ref="B64:E72" totalsRowCount="1" headerRowDxfId="17" dataDxfId="15" totalsRowDxfId="14" headerRowBorderDxfId="16" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CuidadoPersonal" displayName="CuidadoPersonal" ref="B64:E72" totalsRowCount="1" headerRowDxfId="12" dataDxfId="10" totalsRowDxfId="9" headerRowBorderDxfId="11" totalsRowBorderDxfId="8">
   <autoFilter ref="B64:E71" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8229,10 +5055,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Real _x000a_costo" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Real _x000a_costo" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>CuidadoPersonal[[#This Row],[Cantidad prevista 
 costo]]-CuidadoPersonal[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8247,47 +5073,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3D714E3B-2784-436A-89ED-156815393434}" name="Tabla14" displayName="Tabla14" ref="A1:B2" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:B2" xr:uid="{3D714E3B-2784-436A-89ED-156815393434}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E916BEFC-F30A-4A5D-A514-88AC666437C6}" name="Ingresos mensuales previstos" dataDxfId="3">
-      <calculatedColumnFormula>+'Presupuesto personal mensual'!C7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{E97C42D1-5D60-4E2A-AAFA-700DDD5AD316}" name="Ingreso mensual actual" dataDxfId="2">
-      <calculatedColumnFormula>+'Presupuesto personal mensual'!C12</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{263C9CF9-18F9-4F44-A78A-8873638B354B}" name="Tabla18" displayName="Tabla18" ref="A20:C22" totalsRowShown="0">
-  <autoFilter ref="A20:C22" xr:uid="{263C9CF9-18F9-4F44-A78A-8873638B354B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{15A2AA63-EFBA-44B5-A4C4-0B6B1867087D}" name="Costo total previsto"/>
-    <tableColumn id="2" xr3:uid="{7B2A1F63-3932-4F20-866B-16D0CBB24D72}" name="Costo real total"/>
-    <tableColumn id="3" xr3:uid="{6357AEF6-040F-4308-A9F6-D2D7767CA49E}" name="Diferencia total"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{17E3324C-B78F-469D-9AA1-08DD2D0C3D58}" name="Tabla20" displayName="Tabla20" ref="A35:C47" totalsRowShown="0">
-  <autoFilter ref="A35:C47" xr:uid="{17E3324C-B78F-469D-9AA1-08DD2D0C3D58}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0D96BE2F-5BB1-46B7-9DE0-1C6A858AF23D}" name="Columna1"/>
-    <tableColumn id="2" xr3:uid="{F6271DFB-5EBA-4344-B07F-D7163F52A41E}" name="Cantidad prevista_x000a_costo" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{2775C596-0918-4295-88C2-76E60A35C754}" name="Real _x000a_costo" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Entretenimiento" displayName="Entretenimiento" ref="G15:J25" totalsRowCount="1" headerRowDxfId="153" dataDxfId="151" totalsRowDxfId="149" headerRowBorderDxfId="152" tableBorderDxfId="150" totalsRowBorderDxfId="148" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Entretenimiento" displayName="Entretenimiento" ref="G15:J25" totalsRowCount="1" headerRowDxfId="148" dataDxfId="146" totalsRowDxfId="144" headerRowBorderDxfId="147" tableBorderDxfId="145" totalsRowBorderDxfId="143" headerRowCellStyle="Normal">
   <autoFilter ref="G15:J24" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8295,10 +5082,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Real _x000a_costo" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Real _x000a_costo" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8314,7 +5101,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Préstamos" displayName="Préstamos" ref="G29:J36" totalsRowCount="1" headerRowDxfId="139" dataDxfId="137" totalsRowDxfId="135" headerRowBorderDxfId="138" tableBorderDxfId="136" totalsRowBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Préstamos" displayName="Préstamos" ref="G29:J36" totalsRowCount="1" headerRowDxfId="134" dataDxfId="132" totalsRowDxfId="130" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="129">
   <autoFilter ref="G29:J35" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8322,10 +5109,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Real _x000a_costo" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Real _x000a_costo" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>Préstamos[[#This Row],[Cantidad prevista 
 costo]]-Préstamos[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8341,7 +5128,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Transporte" displayName="Transporte" ref="B29:E37" totalsRowCount="1" headerRowDxfId="125" dataDxfId="123" totalsRowDxfId="121" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Transporte" displayName="Transporte" ref="B29:E37" totalsRowCount="1" headerRowDxfId="120" dataDxfId="118" totalsRowDxfId="116" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="115">
   <autoFilter ref="B29:E36" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8349,10 +5136,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Real _x000a_costo" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Real _x000a_costo" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107">
       <calculatedColumnFormula>Transporte[[#This Row],[Cantidad prevista 
 costo]]-Transporte[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8368,7 +5155,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Seguro" displayName="Seguro" ref="B40:E45" totalsRowCount="1" headerRowDxfId="111" dataDxfId="109" totalsRowDxfId="107" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Seguro" displayName="Seguro" ref="B40:E45" totalsRowCount="1" headerRowDxfId="106" dataDxfId="104" totalsRowDxfId="102" headerRowBorderDxfId="105" tableBorderDxfId="103" totalsRowBorderDxfId="101">
   <autoFilter ref="B40:E44" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8376,10 +5163,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cantidad prevista_x000a_costo" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Real _x000a_costo" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cantidad prevista_x000a_costo" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Real _x000a_costo" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>Seguro[[#This Row],[Cantidad prevista
 costo]]-Seguro[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8395,7 +5182,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Impuestos" displayName="Impuestos" ref="G40:J45" totalsRowCount="1" headerRowDxfId="97" dataDxfId="95" totalsRowDxfId="93" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Impuestos" displayName="Impuestos" ref="G40:J45" totalsRowCount="1" headerRowDxfId="92" dataDxfId="90" totalsRowDxfId="88" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="87">
   <autoFilter ref="G40:J44" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8403,10 +5190,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Real _x000a_costo" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Real _x000a_costo" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>Impuestos[[#This Row],[Cantidad prevista 
 costo]]-Impuestos[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8422,7 +5209,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Ahorros" displayName="Ahorros" ref="G48:J52" totalsRowCount="1" headerRowDxfId="83" dataDxfId="81" totalsRowDxfId="80" headerRowBorderDxfId="82" totalsRowBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Ahorros" displayName="Ahorros" ref="G48:J52" totalsRowCount="1" headerRowDxfId="78" dataDxfId="76" totalsRowDxfId="75" headerRowBorderDxfId="77" totalsRowBorderDxfId="74">
   <autoFilter ref="G48:J51" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8430,10 +5217,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Real _x000a_costo" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Real _x000a_costo" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>Ahorros[[#This Row],[Cantidad prevista 
 costo]]-Ahorros[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8449,7 +5236,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Comida" displayName="Comida" ref="B48:E52" totalsRowCount="1" headerRowDxfId="70" dataDxfId="68" totalsRowDxfId="66" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Comida" displayName="Comida" ref="B48:E52" totalsRowCount="1" headerRowDxfId="65" dataDxfId="63" totalsRowDxfId="61" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="60">
   <autoFilter ref="B48:E51" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8457,10 +5244,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Real _x000a_costo" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Real _x000a_costo" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>Comida[[#This Row],[Cantidad prevista 
 costo]]-Comida[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8476,7 +5263,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Regalos" displayName="Regalos" ref="G55:J59" totalsRowCount="1" headerRowDxfId="56" dataDxfId="54" totalsRowDxfId="53" headerRowBorderDxfId="55" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Regalos" displayName="Regalos" ref="G55:J59" totalsRowCount="1" headerRowDxfId="51" dataDxfId="49" totalsRowDxfId="48" headerRowBorderDxfId="50" totalsRowBorderDxfId="47">
   <autoFilter ref="G55:J58" xr:uid="{00000000-0009-0000-0100-000009000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8484,10 +5271,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Real _x000a_costo" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Cantidad prevista _x000a_costo" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Real _x000a_costo" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Diferencia" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>Regalos[[#This Row],[Cantidad prevista 
 costo]]-Regalos[[#This Row],[Real 
 costo]]</calculatedColumnFormula>
@@ -8704,1777 +5491,1715 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828CF256-A10A-4A5C-8FB4-95F27AB5BFA3}">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="B1:B9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="1.3984375" customWidth="1"/>
-    <col min="2" max="2" width="104.3984375" customWidth="1"/>
-    <col min="3" max="3" width="2.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" s="4" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="62" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="10.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="2:2" ht="31" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="57" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.3984375" style="17" customWidth="1"/>
-    <col min="3" max="5" width="23.296875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="33.09765625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="40.8984375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="23.296875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="2.69921875" style="17" customWidth="1"/>
-    <col min="12" max="16384" width="8.8984375" style="17"/>
+    <col min="1" max="1" width="9.109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="12" customWidth="1"/>
+    <col min="3" max="5" width="23.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="40.88671875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14"/>
-      <c r="B2" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="94.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9"/>
+      <c r="B2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="93">
+      <c r="B4" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="77">
         <f>C7-J73</f>
         <v>75000</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2">
         <v>5000</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="19"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
         <v>10000</v>
       </c>
-      <c r="E6" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="94">
+      <c r="E6" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="78">
         <f>C12-J75</f>
         <v>260700</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
         <v>2000000</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="19"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="95">
+      <c r="E8" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="79">
         <f>H6-H4</f>
         <v>185700</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4">
         <v>3000</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="B11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
         <v>5000</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="19"/>
+      <c r="E11" s="14"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
         <v>2000000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="38">
+    <row r="13" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="G14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="33">
         <v>250000</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="33">
         <v>150000</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="33">
         <v>300</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="40">
+      <c r="F16" s="29"/>
+      <c r="G16" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="35">
         <v>20000</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="35">
         <v>15000</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="35">
         <f>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="38">
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="33">
         <v>10000</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="33">
         <v>10000</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="33">
         <v>500</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="40">
+      <c r="F17" s="29"/>
+      <c r="G17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="35">
         <v>2500</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="35">
         <v>0</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="35">
         <f>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="38">
+    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="33">
         <v>25000</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="33">
         <v>30000</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="33">
         <f>Alojamiento[[#This Row],[Cantidad prevista
 costo]]-Alojamiento[[#This Row],[Real 
 costo]]</f>
         <v>-5000</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="40">
+      <c r="F18" s="29"/>
+      <c r="G18" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="35">
         <v>2500</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="35">
         <v>0</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="35">
         <f>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="38">
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="33">
         <v>5000</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="33">
         <v>25000</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="33">
         <f>Alojamiento[[#This Row],[Cantidad prevista
 costo]]-Alojamiento[[#This Row],[Real 
 costo]]</f>
         <v>-20000</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="40">
+      <c r="F19" s="29"/>
+      <c r="G19" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="35">
         <v>50000</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="35">
         <v>75000</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="35">
         <f>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</f>
         <v>-25000</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="38">
+    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="33">
         <v>25000</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="33">
         <v>24000</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="33">
         <f>Alojamiento[[#This Row],[Cantidad prevista
 costo]]-Alojamiento[[#This Row],[Real 
 costo]]</f>
         <v>1000</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="40">
+      <c r="F20" s="29"/>
+      <c r="G20" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="35">
         <v>25000</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="35">
         <v>20000</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="35">
         <f>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="38">
+    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="33">
         <v>25000</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="33">
         <v>15000</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="33">
         <f>Alojamiento[[#This Row],[Cantidad prevista
 costo]]-Alojamiento[[#This Row],[Real 
 costo]]</f>
         <v>10000</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="40">
+      <c r="F21" s="29"/>
+      <c r="G21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="35">
         <v>15000</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="35">
         <v>1000</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="35">
         <f>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="38">
+    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="33">
         <v>75000</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="33">
         <v>50000</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="33">
         <f>Alojamiento[[#This Row],[Cantidad prevista
 costo]]-Alojamiento[[#This Row],[Real 
 costo]]</f>
         <v>25000</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="40">
+      <c r="F22" s="29"/>
+      <c r="G22" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="35">
         <v>150000</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="35">
         <v>100000</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="35">
         <f>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="38">
+    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="33">
         <v>50000</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="33">
         <v>25000</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="33">
         <f>Alojamiento[[#This Row],[Cantidad prevista
 costo]]-Alojamiento[[#This Row],[Real 
 costo]]</f>
         <v>25000</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="40">
+      <c r="F23" s="29"/>
+      <c r="G23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="35">
         <v>0</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="35">
         <v>100</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="35">
         <f>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</f>
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="38">
+    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="33">
         <v>50000</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="33">
         <v>25000</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="33">
         <f>Alojamiento[[#This Row],[Cantidad prevista
 costo]]-Alojamiento[[#This Row],[Real 
 costo]]</f>
         <v>25000</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="40">
+      <c r="F24" s="29"/>
+      <c r="G24" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="35">
         <v>0</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="35">
         <v>1200</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="35">
         <f>Entretenimiento[[#This Row],[Cantidad prevista 
 costo]]-Entretenimiento[[#This Row],[Real 
 costo]]</f>
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="38">
+    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="33">
         <v>15000</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="33">
         <v>10000</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="33">
         <f>Alojamiento[[#This Row],[Cantidad prevista
 costo]]-Alojamiento[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43">
+      <c r="F25" s="29"/>
+      <c r="G25" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38">
         <f>SUBTOTAL(109,Entretenimiento[Diferencia])</f>
         <v>52700</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38">
+    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33">
         <f>SUBTOTAL(109,Alojamiento[Diferencia])</f>
         <v>66800</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-    </row>
-    <row r="27" spans="2:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-    </row>
-    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-    </row>
-    <row r="29" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="50" t="s">
+      <c r="F26" s="29"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="2:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="53">
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+    </row>
+    <row r="29" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="48">
         <v>200000</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="48">
         <v>180000</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="48">
         <f>Transporte[[#This Row],[Cantidad prevista 
 costo]]-Transporte[[#This Row],[Real 
 costo]]</f>
         <v>20000</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="53">
+      <c r="F30" s="29"/>
+      <c r="G30" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="48">
         <v>30000</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="48">
         <v>24000</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="48">
         <f>Préstamos[[#This Row],[Cantidad prevista 
 costo]]-Préstamos[[#This Row],[Real 
 costo]]</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="53">
+    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="48">
         <v>25000</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="48">
         <v>0</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="48">
         <f>Transporte[[#This Row],[Cantidad prevista 
 costo]]-Transporte[[#This Row],[Real 
 costo]]</f>
         <v>25000</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="53">
+      <c r="F31" s="29"/>
+      <c r="G31" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="48">
         <v>10000</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="48">
         <v>52000</v>
       </c>
-      <c r="J31" s="53">
+      <c r="J31" s="48">
         <f>Préstamos[[#This Row],[Cantidad prevista 
 costo]]-Préstamos[[#This Row],[Real 
 costo]]</f>
         <v>-42000</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="53">
+    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="48">
         <v>25000</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="48">
         <v>20000</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="48">
         <f>Transporte[[#This Row],[Cantidad prevista 
 costo]]-Transporte[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="53">
+      <c r="F32" s="29"/>
+      <c r="G32" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="48">
         <v>30000</v>
       </c>
-      <c r="I32" s="53">
+      <c r="I32" s="48">
         <v>20000</v>
       </c>
-      <c r="J32" s="53">
+      <c r="J32" s="48">
         <f>Préstamos[[#This Row],[Cantidad prevista 
 costo]]-Préstamos[[#This Row],[Real 
 costo]]</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="53">
+    <row r="33" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="48">
         <v>20000</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="48">
         <v>10000</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="48">
         <f>Transporte[[#This Row],[Cantidad prevista 
 costo]]-Transporte[[#This Row],[Real 
 costo]]</f>
         <v>10000</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="53">
+      <c r="F33" s="29"/>
+      <c r="G33" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="48">
         <v>15000</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="48">
         <v>10000</v>
       </c>
-      <c r="J33" s="53">
+      <c r="J33" s="48">
         <f>Préstamos[[#This Row],[Cantidad prevista 
 costo]]-Préstamos[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="53">
+    <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="48">
         <v>75000</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="48">
         <v>75000</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="48">
         <f>Transporte[[#This Row],[Cantidad prevista 
 costo]]-Transporte[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="53">
+      <c r="F34" s="29"/>
+      <c r="G34" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="48">
         <v>0</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="48">
         <v>0</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="48">
         <f>Préstamos[[#This Row],[Cantidad prevista 
 costo]]-Préstamos[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="53">
+    <row r="35" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="48">
         <v>30000</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="48">
         <v>25000</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E35" s="48">
         <f>Transporte[[#This Row],[Cantidad prevista 
 costo]]-Transporte[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="53">
+      <c r="F35" s="29"/>
+      <c r="G35" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="48">
         <v>25000</v>
       </c>
-      <c r="I35" s="53">
+      <c r="I35" s="48">
         <v>10000</v>
       </c>
-      <c r="J35" s="53">
+      <c r="J35" s="48">
         <f>Préstamos[[#This Row],[Cantidad prevista 
 costo]]-Préstamos[[#This Row],[Real 
 costo]]</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="53">
+    <row r="36" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="48">
         <v>15000</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="48">
         <v>10000</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="48">
         <f>Transporte[[#This Row],[Cantidad prevista 
 costo]]-Transporte[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56">
+      <c r="F36" s="29"/>
+      <c r="G36" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51">
         <f>SUBTOTAL(109,Préstamos[Diferencia])</f>
         <v>-6000</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56">
+    <row r="37" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51">
         <f>SUBTOTAL(109,Transporte[Diferencia])</f>
         <v>70000</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-    </row>
-    <row r="38" spans="2:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-    </row>
-    <row r="39" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-    </row>
-    <row r="40" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="53">
+      <c r="F37" s="29"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+    </row>
+    <row r="38" spans="2:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+    </row>
+    <row r="39" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+    </row>
+    <row r="40" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="48">
         <v>50000</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="48">
         <v>30000</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="48">
         <f>Seguro[[#This Row],[Cantidad prevista
 costo]]-Seguro[[#This Row],[Real 
 costo]]</f>
         <v>20000</v>
       </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="53">
+      <c r="F41" s="29"/>
+      <c r="G41" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="48">
         <v>25000</v>
       </c>
-      <c r="I41" s="53">
+      <c r="I41" s="48">
         <v>2000</v>
       </c>
-      <c r="J41" s="53">
+      <c r="J41" s="48">
         <f>Impuestos[[#This Row],[Cantidad prevista 
 costo]]-Impuestos[[#This Row],[Real 
 costo]]</f>
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="53">
+    <row r="42" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="48">
         <v>20000</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="48">
         <v>15000</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="48">
         <f>Seguro[[#This Row],[Cantidad prevista
 costo]]-Seguro[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="53">
+      <c r="F42" s="29"/>
+      <c r="G42" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="48">
         <v>15000</v>
       </c>
-      <c r="I42" s="53">
+      <c r="I42" s="48">
         <v>8000</v>
       </c>
-      <c r="J42" s="53">
+      <c r="J42" s="48">
         <f>Impuestos[[#This Row],[Cantidad prevista 
 costo]]-Impuestos[[#This Row],[Real 
 costo]]</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="53">
+    <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="48">
         <v>25000</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="48">
         <v>2000</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="48">
         <f>Seguro[[#This Row],[Cantidad prevista
 costo]]-Seguro[[#This Row],[Real 
 costo]]</f>
         <v>23000</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="53">
+      <c r="F43" s="29"/>
+      <c r="G43" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="48">
         <v>10000</v>
       </c>
-      <c r="I43" s="53">
+      <c r="I43" s="48">
         <v>10000</v>
       </c>
-      <c r="J43" s="53">
+      <c r="J43" s="48">
         <f>Impuestos[[#This Row],[Cantidad prevista 
 costo]]-Impuestos[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="53">
+    <row r="44" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="48">
         <v>2000</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="48">
         <v>0</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="48">
         <f>Seguro[[#This Row],[Cantidad prevista
 costo]]-Seguro[[#This Row],[Real 
 costo]]</f>
         <v>2000</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="53">
+      <c r="F44" s="29"/>
+      <c r="G44" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="48">
         <v>0</v>
       </c>
-      <c r="I44" s="53">
+      <c r="I44" s="48">
         <v>0</v>
       </c>
-      <c r="J44" s="53">
+      <c r="J44" s="48">
         <f>Impuestos[[#This Row],[Cantidad prevista 
 costo]]-Impuestos[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="56">
+    <row r="45" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="51">
         <f>SUBTOTAL(109,Seguro[Diferencia])</f>
         <v>50000</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="56">
+      <c r="F45" s="29"/>
+      <c r="G45" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="51">
         <f>SUBTOTAL(109,Impuestos[Diferencia])</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-    </row>
-    <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-    </row>
-    <row r="48" spans="2:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="J48" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="53">
+    <row r="46" spans="2:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+    </row>
+    <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+    </row>
+    <row r="48" spans="2:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="48">
         <v>200000</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="48">
         <v>180000</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E49" s="48">
         <f>Comida[[#This Row],[Cantidad prevista 
 costo]]-Comida[[#This Row],[Real 
 costo]]</f>
         <v>20000</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" s="53">
+      <c r="F49" s="29"/>
+      <c r="G49" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="48">
         <v>20000</v>
       </c>
-      <c r="I49" s="53">
+      <c r="I49" s="48">
         <v>15000</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="48">
         <f>Ahorros[[#This Row],[Cantidad prevista 
 costo]]-Ahorros[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="53">
+    <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="48">
         <v>50000</v>
       </c>
-      <c r="D50" s="53">
+      <c r="D50" s="48">
         <v>350000</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E50" s="48">
         <f>Comida[[#This Row],[Cantidad prevista 
 costo]]-Comida[[#This Row],[Real 
 costo]]</f>
         <v>-300000</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="53">
+      <c r="F50" s="29"/>
+      <c r="G50" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="48">
         <v>20000</v>
       </c>
-      <c r="I50" s="53">
+      <c r="I50" s="48">
         <v>10000</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="48">
         <f>Ahorros[[#This Row],[Cantidad prevista 
 costo]]-Ahorros[[#This Row],[Real 
 costo]]</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="53">
+    <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="48">
         <v>0</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="48">
         <v>0</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E51" s="48">
         <f>Comida[[#This Row],[Cantidad prevista 
 costo]]-Comida[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="53">
+      <c r="F51" s="29"/>
+      <c r="G51" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="48">
         <v>0</v>
       </c>
-      <c r="I51" s="53">
+      <c r="I51" s="48">
         <v>0</v>
       </c>
-      <c r="J51" s="53">
+      <c r="J51" s="48">
         <f>Ahorros[[#This Row],[Cantidad prevista 
 costo]]-Ahorros[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="56">
+    <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="51">
         <f>SUBTOTAL(109,Comida[Diferencia])</f>
         <v>-280000</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="56">
+      <c r="F52" s="29"/>
+      <c r="G52" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="51">
         <f>SUBTOTAL(109,Ahorros[Diferencia])</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="64"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-    </row>
-    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-    </row>
-    <row r="55" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="J55" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="53">
+    <row r="53" spans="2:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="59"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+    </row>
+    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+    </row>
+    <row r="55" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="29"/>
+      <c r="G55" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="48">
         <v>20000</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="48">
         <v>20000</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="48">
         <f>Mascotas[[#This Row],[Cantidad prevista 
 costo]]-Mascotas[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" s="53">
+      <c r="F56" s="29"/>
+      <c r="G56" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="48">
         <v>10000</v>
       </c>
-      <c r="I56" s="53">
+      <c r="I56" s="48">
         <v>8000</v>
       </c>
-      <c r="J56" s="53">
+      <c r="J56" s="48">
         <f>Regalos[[#This Row],[Cantidad prevista 
 costo]]-Regalos[[#This Row],[Real 
 costo]]</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="53">
+    <row r="57" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="48">
         <v>15000</v>
       </c>
-      <c r="D57" s="53">
+      <c r="D57" s="48">
         <v>10000</v>
       </c>
-      <c r="E57" s="53">
+      <c r="E57" s="48">
         <f>Mascotas[[#This Row],[Cantidad prevista 
 costo]]-Mascotas[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="53">
+      <c r="F57" s="29"/>
+      <c r="G57" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="48">
         <v>0</v>
       </c>
-      <c r="I57" s="53">
+      <c r="I57" s="48">
         <v>0</v>
       </c>
-      <c r="J57" s="53">
+      <c r="J57" s="48">
         <f>Regalos[[#This Row],[Cantidad prevista 
 costo]]-Regalos[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="53">
+    <row r="58" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="48">
         <v>0</v>
       </c>
-      <c r="D58" s="53">
+      <c r="D58" s="48">
         <v>0</v>
       </c>
-      <c r="E58" s="53">
+      <c r="E58" s="48">
         <f>Mascotas[[#This Row],[Cantidad prevista 
 costo]]-Mascotas[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="53">
+      <c r="F58" s="29"/>
+      <c r="G58" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="48">
         <v>0</v>
       </c>
-      <c r="I58" s="53">
+      <c r="I58" s="48">
         <v>0</v>
       </c>
-      <c r="J58" s="53">
+      <c r="J58" s="48">
         <f>Regalos[[#This Row],[Cantidad prevista 
 costo]]-Regalos[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="53">
+    <row r="59" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="48">
         <v>0</v>
       </c>
-      <c r="D59" s="53">
+      <c r="D59" s="48">
         <v>0</v>
       </c>
-      <c r="E59" s="53">
+      <c r="E59" s="48">
         <f>Mascotas[[#This Row],[Cantidad prevista 
 costo]]-Mascotas[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="56">
+      <c r="F59" s="29"/>
+      <c r="G59" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="51">
         <f>SUBTOTAL(109,Regalos[Diferencia])</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="53">
+    <row r="60" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="48">
         <v>0</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="48">
         <v>0</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="48">
         <f>Mascotas[[#This Row],[Cantidad prevista 
 costo]]-Mascotas[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="47"/>
-    </row>
-    <row r="61" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68">
+      <c r="F60" s="29"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="42"/>
+    </row>
+    <row r="61" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63">
         <f>SUBTOTAL(109,Mascotas[Diferencia])</f>
         <v>5000</v>
       </c>
-      <c r="F61" s="34"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="47"/>
-    </row>
-    <row r="62" spans="2:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-    </row>
-    <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="78" t="s">
+      <c r="F61" s="29"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="42"/>
+    </row>
+    <row r="62" spans="2:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+    </row>
+    <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="87"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+    </row>
+    <row r="64" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-    </row>
-    <row r="64" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="H64" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="J64" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="53">
+      <c r="D64" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="29"/>
+      <c r="G64" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="48">
         <v>25000</v>
       </c>
-      <c r="D65" s="53">
+      <c r="D65" s="48">
         <v>2000</v>
       </c>
-      <c r="E65" s="53">
+      <c r="E65" s="48">
         <f>CuidadoPersonal[[#This Row],[Cantidad prevista 
 costo]]-CuidadoPersonal[[#This Row],[Real 
 costo]]</f>
         <v>23000</v>
       </c>
-      <c r="F65" s="34"/>
-      <c r="G65" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H65" s="53">
+      <c r="F65" s="29"/>
+      <c r="G65" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" s="48">
         <v>50000</v>
       </c>
-      <c r="I65" s="53">
+      <c r="I65" s="48">
         <v>0</v>
       </c>
-      <c r="J65" s="53">
+      <c r="J65" s="48">
         <f>Legal[[#This Row],[Cantidad prevista 
 costo]]-Legal[[#This Row],[Real 
 costo]]</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="66" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="53">
+    <row r="66" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="48">
         <v>20000</v>
       </c>
-      <c r="D66" s="53">
+      <c r="D66" s="48">
         <v>25000</v>
       </c>
-      <c r="E66" s="53">
+      <c r="E66" s="48">
         <f>CuidadoPersonal[[#This Row],[Cantidad prevista 
 costo]]-CuidadoPersonal[[#This Row],[Real 
 costo]]</f>
         <v>-5000</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" s="53">
+      <c r="F66" s="29"/>
+      <c r="G66" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H66" s="48">
         <v>0</v>
       </c>
-      <c r="I66" s="53">
+      <c r="I66" s="48">
         <v>0</v>
       </c>
-      <c r="J66" s="53">
+      <c r="J66" s="48">
         <f>Legal[[#This Row],[Cantidad prevista 
 costo]]-Legal[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="53">
+    <row r="67" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="48">
         <v>35000</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="48">
         <v>30000</v>
       </c>
-      <c r="E67" s="53">
+      <c r="E67" s="48">
         <f>CuidadoPersonal[[#This Row],[Cantidad prevista 
 costo]]-CuidadoPersonal[[#This Row],[Real 
 costo]]</f>
         <v>5000</v>
       </c>
-      <c r="F67" s="34"/>
-      <c r="G67" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H67" s="53">
+      <c r="F67" s="29"/>
+      <c r="G67" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="48">
         <v>0</v>
       </c>
-      <c r="I67" s="53">
+      <c r="I67" s="48">
         <v>0</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="48">
         <f>Legal[[#This Row],[Cantidad prevista 
 costo]]-Legal[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="53">
+    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="48">
         <v>0</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="48">
         <v>0</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="48">
         <f>CuidadoPersonal[[#This Row],[Cantidad prevista 
 costo]]-CuidadoPersonal[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
-      <c r="F68" s="34"/>
-      <c r="G68" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="53">
+      <c r="F68" s="29"/>
+      <c r="G68" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="48">
         <v>0</v>
       </c>
-      <c r="I68" s="53">
+      <c r="I68" s="48">
         <v>0</v>
       </c>
-      <c r="J68" s="53">
+      <c r="J68" s="48">
         <f>Legal[[#This Row],[Cantidad prevista 
 costo]]-Legal[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="53">
+    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="48">
         <v>18000</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="48">
         <v>10000</v>
       </c>
-      <c r="E69" s="53">
+      <c r="E69" s="48">
         <f>CuidadoPersonal[[#This Row],[Cantidad prevista 
 costo]]-CuidadoPersonal[[#This Row],[Real 
 costo]]</f>
         <v>8000</v>
       </c>
-      <c r="F69" s="34"/>
-      <c r="G69" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="56">
+      <c r="F69" s="29"/>
+      <c r="G69" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="51">
         <f>SUBTOTAL(109,Legal[Diferencia])</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="53">
+    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="48">
         <v>0</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="48">
         <v>0</v>
       </c>
-      <c r="E70" s="53">
+      <c r="E70" s="48">
         <f>CuidadoPersonal[[#This Row],[Cantidad prevista 
 costo]]-CuidadoPersonal[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
-      <c r="F70" s="34"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-    </row>
-    <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="53">
+      <c r="F70" s="29"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+    </row>
+    <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="48">
         <v>0</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="48">
         <v>0</v>
       </c>
-      <c r="E71" s="53">
+      <c r="E71" s="48">
         <f>CuidadoPersonal[[#This Row],[Cantidad prevista 
 costo]]-CuidadoPersonal[[#This Row],[Real 
 costo]]</f>
         <v>0</v>
       </c>
-      <c r="F71" s="34"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-    </row>
-    <row r="72" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="56">
+      <c r="F71" s="29"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+    </row>
+    <row r="72" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="51">
         <f>SUBTOTAL(109,CuidadoPersonal[Diferencia])</f>
         <v>31000</v>
       </c>
-      <c r="F72" s="34"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-    </row>
-    <row r="73" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="H73" s="86"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="81">
+      <c r="F72" s="29"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="84">
         <f>SUBTOTAL(109,Alojamiento[Cantidad prevista
 costo],Transporte[Cantidad prevista 
 costo],Seguro[Cantidad prevista
@@ -10491,21 +7216,21 @@
         <v>1925000</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F74" s="34"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="86"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="81"/>
-    </row>
-    <row r="75" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F75" s="34"/>
-      <c r="G75" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="H75" s="83"/>
-      <c r="I75" s="83"/>
-      <c r="J75" s="82">
+    <row r="74" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="29"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="84"/>
+    </row>
+    <row r="75" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="29"/>
+      <c r="G75" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="85">
         <f>SUBTOTAL(109,Alojamiento[Real 
 costo],Transporte[Real 
 costo],Seguro[Real 
@@ -10522,71 +7247,78 @@
         <v>1739300</v>
       </c>
     </row>
-    <row r="76" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F76" s="34"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="82"/>
-    </row>
-    <row r="77" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F77" s="34"/>
-      <c r="G77" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H77" s="79"/>
-      <c r="I77" s="79"/>
-      <c r="J77" s="80">
+    <row r="76" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="29"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="85"/>
+    </row>
+    <row r="77" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="29"/>
+      <c r="G77" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" s="82"/>
+      <c r="I77" s="82"/>
+      <c r="J77" s="83">
         <f>J73-J75</f>
         <v>185700</v>
       </c>
     </row>
-    <row r="78" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F78" s="34"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="79"/>
-      <c r="J78" s="80"/>
-    </row>
-    <row r="79" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F79" s="34"/>
-    </row>
-    <row r="80" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F80" s="34"/>
-    </row>
-    <row r="81" spans="6:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F81" s="34"/>
-      <c r="G81" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H81" s="74">
+    <row r="78" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="29"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="83"/>
+    </row>
+    <row r="79" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="2:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="6:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F81" s="29"/>
+      <c r="G81" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" s="66">
         <f>+J73</f>
         <v>1925000</v>
       </c>
     </row>
-    <row r="82" spans="6:8" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="G82" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="H82" s="75">
+    <row r="82" spans="6:8" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="G82" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" s="67">
         <f>+J75</f>
         <v>1739300</v>
       </c>
     </row>
-    <row r="83" spans="6:8" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="G83" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="H83" s="75">
+    <row r="83" spans="6:8" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="G83" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" s="67">
         <f>+J77</f>
         <v>185700</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H84" s="73"/>
-    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="G75:I76"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G38:J38"/>
     <mergeCell ref="G73:I74"/>
@@ -10603,16 +7335,6 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="B47:E47"/>
-    <mergeCell ref="G77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="G75:I76"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:J63"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cree un presupuesto mensual personal en esta hoja de cálculo. Encontrará instrucciones útiles sobre cómo usar este libro en las celdas de esta columna. Use la flecha hacia abajo para empezar." sqref="A1" xr:uid="{535C1FB4-69DA-478A-9C24-451D9BD5B386}"/>
@@ -10658,267 +7380,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA442B-5274-44F6-88D1-8DB1FDB9FACB}">
-  <dimension ref="A1:C47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.69921875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="71">
-        <f>+'Presupuesto personal mensual'!C7</f>
-        <v>2000000</v>
-      </c>
-      <c r="B2" s="71">
-        <f>+'Presupuesto personal mensual'!C12</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="72">
-        <f>+'Presupuesto personal mensual'!H81</f>
-        <v>1925000</v>
-      </c>
-      <c r="B21" s="72">
-        <f>+'Presupuesto personal mensual'!H83</f>
-        <v>185700</v>
-      </c>
-      <c r="C21" s="72">
-        <f>+'Presupuesto personal mensual'!H83</f>
-        <v>185700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="72">
-        <f>+SUM(Alojamiento[Cantidad prevista
-costo])</f>
-        <v>530000</v>
-      </c>
-      <c r="C36" s="72">
-        <f>+SUM(Alojamiento[Real 
-costo])</f>
-        <v>364000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="72">
-        <f>+SUM(Entretenimiento[Cantidad prevista 
-costo])</f>
-        <v>265000</v>
-      </c>
-      <c r="C37" s="72">
-        <f>+SUM(Entretenimiento[Real 
-costo])</f>
-        <v>212300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="72">
-        <f>+SUM(Transporte[Cantidad prevista 
-costo])</f>
-        <v>390000</v>
-      </c>
-      <c r="C38" s="72">
-        <f>+SUM(Transporte[Real 
-costo])</f>
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="72">
-        <f>+SUM(Préstamos[Cantidad prevista 
-costo])</f>
-        <v>110000</v>
-      </c>
-      <c r="C39" s="72">
-        <f>+SUM(Préstamos[Real 
-costo])</f>
-        <v>116000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="72">
-        <f>+SUM(Seguro[Cantidad prevista
-costo])</f>
-        <v>97000</v>
-      </c>
-      <c r="C40" s="72">
-        <f>+SUM(Seguro[Real 
-costo])</f>
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="72">
-        <f>+SUM(Impuestos[Cantidad prevista 
-costo])</f>
-        <v>50000</v>
-      </c>
-      <c r="C41" s="72">
-        <f>+SUM(Impuestos[Real 
-costo])</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="72">
-        <f>+SUM(Comida[Cantidad prevista 
-costo])</f>
-        <v>250000</v>
-      </c>
-      <c r="C42" s="72">
-        <f>+SUM(Comida[Real 
-costo])</f>
-        <v>530000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="72">
-        <f>+SUM(Ahorros[Cantidad prevista 
-costo])</f>
-        <v>40000</v>
-      </c>
-      <c r="C43" s="72">
-        <f>+SUM(Ahorros[Real 
-costo])</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="72">
-        <f>+SUM(Mascotas[Cantidad prevista 
-costo])</f>
-        <v>35000</v>
-      </c>
-      <c r="C44" s="72">
-        <f>+SUM(Mascotas[Real 
-costo])</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="72">
-        <f>+SUM(Regalos[Cantidad prevista 
-costo])</f>
-        <v>10000</v>
-      </c>
-      <c r="C45" s="72">
-        <f>+SUM(Regalos[Real 
-costo])</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="72">
-        <f>+SUM(CuidadoPersonal[Cantidad prevista 
-costo])</f>
-        <v>98000</v>
-      </c>
-      <c r="C46" s="72">
-        <f>+SUM(CuidadoPersonal[Real 
-costo])</f>
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="72">
-        <f>+SUM(Legal[Cantidad prevista 
-costo])</f>
-        <v>50000</v>
-      </c>
-      <c r="C47" s="72">
-        <f>+SUM(Legal[Real 
-costo])</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11218,36 +7709,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1766A65-F7C1-4A05-AEB7-FE8822B53FAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08AC7FD9-EBCF-4CC4-BE1C-34B80F7E8353}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48771426-2A7A-4B36-9D43-BE262652591C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11266,24 +7748,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08AC7FD9-EBCF-4CC4-BE1C-34B80F7E8353}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1766A65-F7C1-4A05-AEB7-FE8822B53FAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>